--- a/data/income_statement/2digits/size/07_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/07_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>07-Mining of metal ores</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>07-Mining of metal ores</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,848 +841,958 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>306805.22565</v>
+        <v>377973.26899</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>464825.5590900001</v>
+        <v>540043.69326</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>573602.1072000001</v>
+        <v>628121.39197</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>536676.18979</v>
+        <v>738653.1873700001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>824312.75586</v>
+        <v>924105.43083</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>768665.09887</v>
+        <v>786242.9146499999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>536648.7626400001</v>
+        <v>568246.39111</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>672725.79785</v>
+        <v>901846.4109400001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>880997.99738</v>
+        <v>1091359.86977</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1814222.62789</v>
+        <v>2298952.21686</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1531786.60183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1835396.53817</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1562945.998</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>215207.9109</v>
+        <v>244918.49893</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>311451.3649099999</v>
+        <v>342461.41717</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>387628.95157</v>
+        <v>426079.43638</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>324431.16398</v>
+        <v>435737.34725</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>559974.84097</v>
+        <v>613488.7665700001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>495922.66401</v>
+        <v>498753.96447</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>382460.86274</v>
+        <v>401940.78371</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>461424.49592</v>
+        <v>612461.31875</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>645620.69403</v>
+        <v>763806.0163400001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1230296.91727</v>
+        <v>1447588.15809</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1120930.88478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1290970.62837</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1003818.548</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>88441.73248999999</v>
+        <v>120911.59131</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>143828.64043</v>
+        <v>178877.27222</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>166281.4742</v>
+        <v>182948.77805</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>189413.72799</v>
+        <v>265882.21876</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>237621.98748</v>
+        <v>270873.09412</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>250395.64421</v>
+        <v>265284.42854</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>149150.66206</v>
+        <v>158999.41459</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>185000.36988</v>
+        <v>234218.20945</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>206377.96243</v>
+        <v>288131.96372</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>534422.76557</v>
+        <v>777190.9664100001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>381055.54357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>483022.37106</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>492300.121</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3155.58226</v>
+        <v>12143.17875</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9545.553749999999</v>
+        <v>18705.00387</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>19691.68143</v>
+        <v>19093.17754</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>22831.29782</v>
+        <v>37033.62136</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>26715.92741</v>
+        <v>39743.57014</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>22346.79065</v>
+        <v>22204.52164</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5037.23784</v>
+        <v>7306.19281</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>26300.93205</v>
+        <v>55166.88273999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>28999.34092</v>
+        <v>39421.88971</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>49502.94504999999</v>
+        <v>74173.09236</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>29800.17348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>61403.53874</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>66827.329</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1879.75155</v>
+        <v>2600.73419</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4621.39229</v>
+        <v>5858.19181</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4003.3053</v>
+        <v>4123.88125</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8998.889279999999</v>
+        <v>14252.27001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>9667.28116</v>
+        <v>7243.25753</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11708.73411</v>
+        <v>5138.191769999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5520.13321</v>
+        <v>3874.39605</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7734.95532</v>
+        <v>38828.00647</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>9980.87118</v>
+        <v>26102.19449</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>47598.27758</v>
+        <v>51317.9257</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>16519.27399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>25084.68061</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>35677.653</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>291.5726</v>
+        <v>672.52912</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>600.47133</v>
+        <v>809.7406</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>906.4527399999999</v>
+        <v>908.0846000000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4726.48588</v>
+        <v>6509.95283</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4800.317470000001</v>
+        <v>1230.80399</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>8324.404790000001</v>
+        <v>1655.15823</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>2302.16956</v>
+        <v>840.64004</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4265.33685</v>
+        <v>36277.43819</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7773.254720000001</v>
+        <v>23606.00691</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>41208.80136</v>
+        <v>23502.66735</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3925.70748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8838.4022</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>25543.473</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>914.11825</v>
+        <v>840.9141599999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2444.36127</v>
+        <v>2706.49407</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1542.23981</v>
+        <v>1549.995</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2810.51724</v>
+        <v>6005.971810000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>889.5044</v>
+        <v>2008.34583</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1090.71943</v>
+        <v>1208.00235</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>1593.13994</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>678.2520400000001</v>
+        <v>18.42929</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>20.61536</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>387.95905</v>
+        <v>521.7515999999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4568.27579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4702.42958</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3352.278</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>674.0607</v>
+        <v>1087.29091</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1576.55969</v>
+        <v>2341.95714</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1554.61275</v>
+        <v>1665.80165</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1461.88616</v>
+        <v>1736.34537</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3977.45929</v>
+        <v>4004.10771</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2293.60989</v>
+        <v>2275.03119</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1624.82371</v>
+        <v>1440.61607</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2791.36643</v>
+        <v>2532.13899</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2187.0011</v>
+        <v>2475.57222</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6001.51717</v>
+        <v>27293.50675</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>8025.29072</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11543.84883</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6781.902</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>304925.4741000001</v>
+        <v>375372.5348</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>460204.1668</v>
+        <v>534185.50145</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>569598.8019</v>
+        <v>623997.51072</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>527677.30051</v>
+        <v>724400.91736</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>814645.4747</v>
+        <v>916862.1732999999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>756956.36476</v>
+        <v>781104.72288</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>531128.62943</v>
+        <v>564371.9950600001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>664990.84253</v>
+        <v>863018.4044700001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>871017.1262000001</v>
+        <v>1065257.67528</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1766624.35031</v>
+        <v>2247634.29116</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1515267.32784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1810311.85756</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1527268.345</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>240920.92924</v>
+        <v>283173.77993</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>354125.92376</v>
+        <v>396614.56079</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>447063.56687</v>
+        <v>487915.55987</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>441641.11975</v>
+        <v>596812.7735599999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>683743.9060900001</v>
+        <v>752116.50547</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>598554.72093</v>
+        <v>617226.5442799999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>438052.60932</v>
+        <v>481042.12815</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>513149.72073</v>
+        <v>642786.3594</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>642314.54587</v>
+        <v>797257.08062</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1300174.50475</v>
+        <v>1498558.50702</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1166450.54278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1286204.70057</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1072674.193</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>147973.38565</v>
+        <v>174517.27896</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>197922.87711</v>
+        <v>233695.96639</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>278837.8553</v>
+        <v>308801.26024</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>266630.28868</v>
+        <v>393234.31625</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>420293.59856</v>
+        <v>485336.50304</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>365816.39976</v>
+        <v>406733.8323</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>284725.36263</v>
+        <v>332789.5347600001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>338923.54839</v>
+        <v>399976.3973599999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>400141.57719</v>
+        <v>514712.76909</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>807952.24342</v>
+        <v>924370.27697</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>721791.9292900001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>876425.4488000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>523953.836</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>49374.33896</v>
+        <v>55564.15079000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>115886.47125</v>
+        <v>111097.67139</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>102677.70375</v>
+        <v>108746.27146</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>110084.32862</v>
+        <v>135608.92323</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>199598.29474</v>
+        <v>198575.80144</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>174610.75503</v>
+        <v>161591.4704</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>96187.98138</v>
+        <v>99906.16055999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>99454.08164999999</v>
+        <v>145378.54461</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>136483.82946</v>
+        <v>175744.34479</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>377782.6719</v>
+        <v>364011.69036</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>325941.25283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>296048.81395</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>454516.108</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>35064.64973999999</v>
+        <v>44098.85574</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>39544.75819</v>
+        <v>50034.44858</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>57422.33601</v>
+        <v>61731.14832</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>59692.39604</v>
+        <v>59575.54162</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>63364.90639</v>
+        <v>65772.7987</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>54461.77595</v>
+        <v>46254.68114</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>55714.76333</v>
+        <v>47429.30982</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>70105.05635</v>
+        <v>92336.77278</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>103771.41017</v>
+        <v>105693.31523</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>98704.06294999999</v>
+        <v>191379.56267</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>114463.83694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>111455.77367</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>91582.755</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>8508.554890000001</v>
+        <v>8993.494440000002</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>771.8172099999999</v>
+        <v>1786.47443</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>8125.671810000001</v>
+        <v>8636.879849999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5234.10641</v>
+        <v>8393.992460000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>487.1064</v>
+        <v>2431.40229</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3665.79019</v>
+        <v>2646.56044</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1424.50198</v>
+        <v>917.12301</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4667.03434</v>
+        <v>5094.64465</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1917.72905</v>
+        <v>1106.65151</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15735.52648</v>
+        <v>18796.97702</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4253.52372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2274.66415</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2621.494</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>64004.54486</v>
+        <v>92198.75487</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>106078.24304</v>
+        <v>137570.94066</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>122535.23503</v>
+        <v>136081.95085</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>86036.18076</v>
+        <v>127588.1438</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>130901.56861</v>
+        <v>164745.66783</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>158401.64383</v>
+        <v>163878.1786</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>93076.02011</v>
+        <v>83329.86691</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>151841.1218</v>
+        <v>220232.04507</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>228702.58033</v>
+        <v>268000.59466</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>466449.84556</v>
+        <v>749075.78414</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>348816.78506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>524107.15699</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>454594.152</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>42939.19623</v>
+        <v>58710.00622</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>55644.28671</v>
+        <v>78634.59248000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>77583.52525999999</v>
+        <v>82475.60253999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>84970.66256</v>
+        <v>140224.61777</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>99228.14665000001</v>
+        <v>133800.87719</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>93330.54821000001</v>
+        <v>81269.61043</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>88354.89990999999</v>
+        <v>80080.66946</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>119083.71855</v>
+        <v>139621.73047</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>134090.8436</v>
+        <v>143399.95409</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>215975.17959</v>
+        <v>276273.61108</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>243343.60281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>303234.97227</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>185262.576</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>146.06567</v>
+        <v>6.16887</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>633.6612299999999</v>
+        <v>1314.71319</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2517.19918</v>
+        <v>1344.72551</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>307.48554</v>
+        <v>214.52554</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>634.1386000000001</v>
+        <v>673.4892199999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2624.31905</v>
+        <v>16.19958</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>39.51536</v>
+        <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1099.99382</v>
+        <v>4546.52576</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>58.03326999999999</v>
+        <v>446.7427</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2229.5086</v>
+        <v>3887.2578</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2064.34237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4879.40376</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>88.997</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>20292.62682</v>
+        <v>25456.68295</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>25638.35383</v>
+        <v>36351.00491</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>24754.33796</v>
+        <v>29619.11655</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>40214.33854</v>
+        <v>59044.02588</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>37979.47597</v>
+        <v>54601.36698000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>36331.74112000001</v>
+        <v>34189.09139</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>27643.14511</v>
+        <v>28315.20501</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>39679.43445</v>
+        <v>46428.85473000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>37836.29641</v>
+        <v>42808.53836999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>75414.17515</v>
+        <v>97123.30078000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>86391.02291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>108974.02019</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>61702.036</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>22500.50374</v>
+        <v>33247.1544</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>29372.27165</v>
+        <v>40968.87438</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>50311.98811999999</v>
+        <v>51511.76048</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>44448.83848</v>
+        <v>80966.06635000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>60614.53208</v>
+        <v>78526.02099</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>54374.48804</v>
+        <v>47064.31946</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>60672.23944</v>
+        <v>51765.46445</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>78304.29028</v>
+        <v>88646.34997999998</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>96196.51392</v>
+        <v>100144.67302</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>138331.49584</v>
+        <v>175263.0525</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>154888.23753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>189381.54832</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>123471.543</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>21065.34863</v>
+        <v>33488.74865</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>50433.95633</v>
+        <v>58936.34818</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>44951.70976999999</v>
+        <v>53606.34831</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1065.518199999999</v>
+        <v>-12636.47397</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>31673.42196</v>
+        <v>30944.79064</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>65071.09562000001</v>
+        <v>82608.56817</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4721.1202</v>
+        <v>3249.19745</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>32757.40325</v>
+        <v>80610.3146</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>94611.73673</v>
+        <v>124600.64057</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>250474.66597</v>
+        <v>472802.17306</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>105473.18225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>220872.18472</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>269331.576</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>16100.76433</v>
+        <v>48409.1841</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>13531.20712</v>
+        <v>62297.00534999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>20635.96149</v>
+        <v>47992.84666</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>23292.39095</v>
+        <v>64325.61298</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>36755.88511</v>
+        <v>47131.6861</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>37041.71676</v>
+        <v>35833.12968999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>61261.41552</v>
+        <v>53143.07236</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>40380.14429</v>
+        <v>251817.17345</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>83433.36612999999</v>
+        <v>138551.07601</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>350258.62946</v>
+        <v>624607.23122</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>230083.95142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>598840.7401899999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>322994.321</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>20823.41463</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>16040.783</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1.5</v>
+        <v>128.66056</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>254.6417</v>
+        <v>228.56246</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>1026.22181</v>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1799,25 +1810,30 @@
         <v>21</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>16013.66934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>15.555</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>7.666</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>5488.85941</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>14305.09771</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>651.98968</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>148551.45236</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>248.042</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1531.50122</v>
+        <v>5040.28903</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>772.8708800000001</v>
+        <v>4164.9513</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2787.93508</v>
+        <v>4792.29673</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1831.59327</v>
+        <v>10705.36901</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>3369.97214</v>
+        <v>7041.56379</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3805.35026</v>
+        <v>3446.538849999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5035.24793</v>
+        <v>5286.119570000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6863.00176</v>
+        <v>9638.202039999998</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8012.84774</v>
+        <v>11845.93417</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>18611.19395</v>
+        <v>92680.89370999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>19747.7864</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>66015.36412</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>17853.825</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1892,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>0</v>
+        <v>4.677680000000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>0</v>
+        <v>9070.9529</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
@@ -1913,136 +1939,156 @@
         <v>111.43618</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1868.05969</v>
+        <v>13068.17571</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4.04635</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>8523.012190000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>898.736</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>101.666</v>
+        <v>105.866</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>7</v>
+        <v>41.406</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0</v>
+        <v>2696.86649</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>49.58919</v>
+        <v>79.78286999999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>160.85057</v>
+        <v>131.99614</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4072.65425</v>
+        <v>23.91822</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>12113.53576</v>
+        <v>1356.0243</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>53.90623</v>
+        <v>0</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>26.52061</v>
+        <v>3618.62121</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>119.67037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1272.7299</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>30.494</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>240.42399</v>
+        <v>175.74685</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>414.6486</v>
+        <v>427.26108</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1327.28841</v>
+        <v>1328.26116</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1523.57886</v>
+        <v>1534.83039</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>53.04596</v>
+        <v>19.07824</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>93.32708</v>
+        <v>105.90296</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>558.30828</v>
+        <v>9.88048</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>54.46680000000001</v>
+        <v>63.40199</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>140.62334</v>
+        <v>11.26258</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2801.18148</v>
+        <v>14508.93023</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4494.52674</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>486.20513</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>166.653</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12969.5239</v>
+        <v>14027.0729</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>10681.76806</v>
+        <v>22894.93643</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>14675.7637</v>
+        <v>35069.0773</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>16980.98104</v>
+        <v>38921.42218</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>29244.57278</v>
+        <v>36825.88181</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>24831.00459</v>
+        <v>29004.56763</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>39367.63868</v>
+        <v>43157.50116</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>28945.87865</v>
+        <v>234692.63628</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>30502.80609</v>
+        <v>120385.76043</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>311030.97217</v>
+        <v>481888.5972200001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>179240.86384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>360692.67442</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>290908.358</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>7.055899999999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>497.61509</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>554.919</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,179 +2164,204 @@
       <c r="M34" s="48" t="n">
         <v>1458.93113</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>229.242</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1257.64922</v>
+        <v>2740.87938</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1638.87908</v>
+        <v>4406.52933</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1843.4743</v>
+        <v>3973.00674</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2893.14859</v>
+        <v>3361.26595</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3672.80196</v>
+        <v>2884.60366</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3213.15877</v>
+        <v>2225.98022</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>4186.68487</v>
+        <v>3333.54685</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4495.95814</v>
+        <v>6997.0942</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>44611.74655</v>
+        <v>6196.68265</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15349.74762</v>
+        <v>18271.0592</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>8506.84216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>11327.20085</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>12096.386</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>14357.70592</v>
+        <v>18701.68681</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>12633.07058</v>
+        <v>26704.57495</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>27883.8996</v>
+        <v>62298.34201000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>16468.03689</v>
+        <v>37326.14398</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>43086.60875</v>
+        <v>94921.66938000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>53826.45445</v>
+        <v>39706.16923</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>60485.19918</v>
+        <v>127582.51384</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>55825.66444</v>
+        <v>217698.49703</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>73514.46334999999</v>
+        <v>129869.75064</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>399923.88169</v>
+        <v>574798.59165</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>239701.05436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>427757.41428</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>427231.962</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3.06258</v>
+        <v>32.0775</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>17.08109</v>
+        <v>111.96323</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>109.23003</v>
+        <v>106.88372</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>44.29364999999999</v>
+        <v>45.91396999999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>302.00848</v>
+        <v>301.41394</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>221.42849</v>
+        <v>221.82659</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>38.46911</v>
+        <v>39.61236</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>19.35563</v>
+        <v>4.4348</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>28.93664</v>
+        <v>2753.23914</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>626.5195299999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>291.85851</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>930.40985</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>270.146</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>106.976</v>
+        <v>155.53712</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>125.68412</v>
+        <v>332.14423</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>58.6706</v>
+        <v>275.52253</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>168.47002</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2109.39584</v>
+        <v>2052.30009</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>586.31819</v>
+        <v>394.30453</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>779.63491</v>
+        <v>656.29458</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>713.93288</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>559.1815899999999</v>
+        <v>470.06159</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1489.16039</v>
+        <v>2290.35823</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>834.20272</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>680.393</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>381.81647</v>
+        <v>336.11791</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>257.18799</v>
+        <v>259.88799</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>879.30711</v>
+        <v>889.50711</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>45.53347</v>
+        <v>50.35249</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>1069.75426</v>
@@ -2300,58 +2376,68 @@
         <v>67.10910000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>52.55042</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>900.01623</v>
+        <v>23060.76323</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>7682.68426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>7687.88854</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2.929</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>12956.39536</v>
+        <v>17043.81508</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9893.76015</v>
+        <v>23543.67401</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>19416.16332</v>
+        <v>53529.80869999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10752.13162</v>
+        <v>28502.19309</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>32826.49311</v>
+        <v>87624.56965</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>31579.46706</v>
+        <v>32485.54026</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>48887.73118</v>
+        <v>122070.65761</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>49313.54580000001</v>
+        <v>211816.36292</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>35688.08098000001</v>
+        <v>116266.90371</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>360360.99844</v>
+        <v>517550.811</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>211762.01111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>396586.64521</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>407543.463</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2366,16 +2452,16 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>2715.83815</v>
+        <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>5079.18516</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>315.13564</v>
+        <v>108.78088</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>476.25041</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>453.155</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.00308</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>909.45551</v>
+        <v>1134.1392</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2339.26961</v>
+        <v>2456.81787</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5637.48494</v>
+        <v>5713.57635</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5457.60813</v>
+        <v>8559.21441</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4063.11891</v>
+        <v>3873.63144</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21420.73797</v>
+        <v>6585.99511</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5700.17882</v>
+        <v>4815.94929</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5396.585389999999</v>
+        <v>4987.87337</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>37185.71372</v>
+        <v>10379.5462</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>35971.78361</v>
+        <v>30694.73617</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>18654.04735</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>21242.01755</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>18281.876</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10915.63374</v>
+        <v>14303.74881</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9008.528709999999</v>
+        <v>13962.90548</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>17025.16598</v>
+        <v>21970.16008</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12265.04425</v>
+        <v>26756.33538</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>14735.92107</v>
+        <v>25485.77452</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16999.76974</v>
+        <v>26339.8143</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>27454.19186</v>
+        <v>22231.35164</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>26600.05125</v>
+        <v>61038.19172</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>25764.25115</v>
+        <v>33413.47134</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>64308.61551</v>
+        <v>66863.33231</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>69768.60519</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>118789.22378</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>55487.073</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>8074.814219999999</v>
+        <v>13638.99772</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6762.548</v>
+        <v>13146.08749</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>16721.93047</v>
+        <v>19765.05661</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>12151.27956</v>
+        <v>23390.01375</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>13897.37595</v>
+        <v>24573.69072</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>14193.2423</v>
+        <v>23895.79035</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>25526.25078</v>
+        <v>22152.11918</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>24310.79755</v>
+        <v>59842.66230999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>24867.30752</v>
+        <v>32910.65578</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>57223.92434000001</v>
+        <v>59365.10439</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>69021.85334</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>72195.57672</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>47401.162</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2840.81952</v>
+        <v>664.75109</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2245.98071</v>
+        <v>816.81799</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>303.23551</v>
+        <v>2205.10347</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>113.76469</v>
+        <v>3366.32163</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>838.54512</v>
+        <v>912.0838</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2806.52744</v>
+        <v>2444.02395</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1927.94108</v>
+        <v>79.23246</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2289.2537</v>
+        <v>1195.52941</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>896.94363</v>
+        <v>502.81556</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>7084.69117</v>
+        <v>7498.22792</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>746.75185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>46593.64706</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>8085.911</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>11892.7733</v>
+        <v>48892.49713</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>42323.56415999999</v>
+        <v>80565.8731</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>20678.60568</v>
+        <v>17330.69288</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4375.17199</v>
+        <v>-12393.34035</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>10606.77725</v>
+        <v>-42330.96715999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>31286.58819</v>
+        <v>52395.71433</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-21956.85532</v>
+        <v>-93421.59566999998</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-9288.16815</v>
+        <v>53690.7993</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>78766.38836</v>
+        <v>99868.49460000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>136500.79823</v>
+        <v>455747.48032</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>26087.47412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>273166.28685</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>109606.862</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4905.84846</v>
+        <v>5349.459059999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1575.69547</v>
+        <v>2417.4997</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5204.34636</v>
+        <v>8147.72712</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>7748.65277</v>
+        <v>13434.94559</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6700.2356</v>
+        <v>3715.12068</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>10860.98425</v>
+        <v>9766.990559999998</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>15583.86475</v>
+        <v>12678.95483</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5650.45584</v>
+        <v>7925.42965</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>10940.59869</v>
+        <v>7321.08201</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>15284.6319</v>
+        <v>21490.77446</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>14573.29275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>13183.7568</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>18225.128</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>8.45861</v>
+        <v>5.28181</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>38.1602</v>
+        <v>38.75823</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>67.11333</v>
+        <v>43.20697</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>88.10745999999999</v>
+        <v>433.34309</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>88.47628</v>
+        <v>78.26947</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>135.28834</v>
+        <v>99.80292999999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>68.50038000000001</v>
+        <v>373.76386</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>91.88597999999999</v>
+        <v>340.56009</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>225.08619</v>
+        <v>5.469819999999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>208.50228</v>
+        <v>203.00228</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>23.76438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>40.33174</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>122.949</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4897.38985</v>
+        <v>5344.17725</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1537.53527</v>
+        <v>2378.74147</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5137.23303</v>
+        <v>8104.520149999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7660.54531</v>
+        <v>13001.6025</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6611.75932</v>
+        <v>3636.85121</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>10725.69591</v>
+        <v>9667.187629999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>15515.36437</v>
+        <v>12305.19097</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5558.56986</v>
+        <v>7584.86956</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>10715.5125</v>
+        <v>7315.612190000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>15076.12962</v>
+        <v>21287.77218</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>14549.52837</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>13143.42506</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>18102.179</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6978.21801</v>
+        <v>3530.67607</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8621.150220000001</v>
+        <v>7247.58052</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>29838.42884</v>
+        <v>78625.55218000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>12721.96691</v>
+        <v>30529.21257</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>20513.07371</v>
+        <v>13853.36723</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>44802.02127</v>
+        <v>47346.25866000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>27206.02702</v>
+        <v>22561.8825</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>21259.18848</v>
+        <v>83545.34834</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>14051.71861</v>
+        <v>42664.16975</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>41152.1066</v>
+        <v>161344.13297</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46943.72398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>163558.72671</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>24826.37</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1626.58233</v>
+        <v>1553.01308</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1710.9561</v>
+        <v>621.53597</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1291.80168</v>
+        <v>5765.578</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4599.212570000001</v>
+        <v>18116.39836</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>7729.78197</v>
+        <v>2701.84588</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6070.311640000001</v>
+        <v>5369.00362</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7422.53958</v>
+        <v>8704.29622</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6347.77046</v>
+        <v>29321.92530000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>3551.14255</v>
+        <v>31235.0294</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6152.923699999999</v>
+        <v>100562.75489</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>13650.30386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>143574.86699</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>15272.015</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>834.99044</v>
+        <v>801.8897000000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>499.69462</v>
+        <v>240.9228</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3089.29644</v>
+        <v>3558.04729</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>497.75127</v>
+        <v>493.03992</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2785.92479</v>
+        <v>2513.9026</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2058.31342</v>
+        <v>1265.49463</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3010.85122</v>
+        <v>1737.05139</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3488.42601</v>
+        <v>3522.54224</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2889.98172</v>
+        <v>529.62402</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1696.54796</v>
+        <v>1695.52771</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2176.6054</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1974.10047</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2237.082</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4516.64524</v>
+        <v>1175.77329</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6410.4995</v>
+        <v>6385.12175</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>25457.33072</v>
+        <v>69301.92689</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>7625.003070000001</v>
+        <v>11919.77429</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>9997.366950000001</v>
+        <v>8637.61875</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>36673.39621</v>
+        <v>40711.76041</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16772.63622</v>
+        <v>12120.53489</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>11422.99201</v>
+        <v>50700.8808</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>7610.594340000001</v>
+        <v>10899.51633</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>33302.63494</v>
+        <v>59085.85037</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>31116.81472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>18009.75925</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7317.273</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>9820.403749999999</v>
+        <v>50711.28012</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>35278.10941</v>
+        <v>75735.79227999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-3955.4768</v>
+        <v>-53147.13218000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-9348.486129999999</v>
+        <v>-29487.60733</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-3206.06086</v>
+        <v>-52469.21371</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2654.448830000001</v>
+        <v>14816.44623</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-33579.01759</v>
+        <v>-103304.52334</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-24896.90079</v>
+        <v>-21929.11939</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>75655.26844</v>
+        <v>64525.40686</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>110633.32353</v>
+        <v>315894.12181</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-6282.957109999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>122791.31694</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>103005.62</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6033.49472</v>
+        <v>7715.5178</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>9995.264190000002</v>
+        <v>11394.33603</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>10425.24289</v>
+        <v>12006.57563</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5933.13835</v>
+        <v>6283.02863</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>9101.5656</v>
+        <v>9576.010469999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>9512.79269</v>
+        <v>10448.21497</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3818.05182</v>
+        <v>2682.78783</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5000.76812</v>
+        <v>24673.844</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>10384.4918</v>
+        <v>15164.98711</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>40885.85808</v>
+        <v>84395.52658000002</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>24782.59711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>32216.64057</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>28767.333</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3786.909029999999</v>
+        <v>42995.76232</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>25282.84522</v>
+        <v>64341.45625</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-14380.71969</v>
+        <v>-65153.70781</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-15281.62448</v>
+        <v>-35770.63596</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-12307.62646</v>
+        <v>-62045.22418</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-12167.24152</v>
+        <v>4368.23126</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-37397.06941</v>
+        <v>-105987.31117</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-29897.66891</v>
+        <v>-46602.96339</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>65270.77664</v>
+        <v>49360.41975</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>69747.46545</v>
+        <v>231498.59523</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-31065.55422</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>90574.67636999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>74238.287</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>62</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>79</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>93</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>57</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>